--- a/Лабы/СГМ/SGM.xlsx
+++ b/Лабы/СГМ/SGM.xlsx
@@ -9,11 +9,47 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$B$8:$B$9</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист2!$B$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Лист2!$B$9</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$D$8</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>l</t>
   </si>
@@ -52,13 +88,72 @@
   <si>
     <t>p(l)</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>17,759*exp^0,0776x</t>
+  </si>
+  <si>
+    <t>1,7629*x+17,347</t>
+  </si>
+  <si>
+    <t>5,079ln(x) + 17,947</t>
+  </si>
+  <si>
+    <t>-0,2429x2 + 3,4629x + 15,08</t>
+  </si>
+  <si>
+    <r>
+      <t>18,164x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,2272</t>
+    </r>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>y^</t>
+  </si>
+  <si>
+    <t>(y^-y)^2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -236,11 +332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="518444816"/>
-        <c:axId val="518443640"/>
+        <c:axId val="307023392"/>
+        <c:axId val="307019864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="518444816"/>
+        <c:axId val="307023392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -297,12 +393,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518443640"/>
+        <c:crossAx val="307019864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="518443640"/>
+        <c:axId val="307019864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +455,598 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518444816"/>
+        <c:crossAx val="307023392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47546587926509187"/>
+                  <c:y val="0.35143518518518518"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21235476815398074"/>
+                  <c:y val="0.32828703703703704"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2138397692560454E-2"/>
+                  <c:y val="0.32320435938885123"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.37934014044225922"/>
+                  <c:y val="0.51112335958005251"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.23020068395623652"/>
+                  <c:y val="0.49576299212598424"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="399011288"/>
+        <c:axId val="399018736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="399011288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399018736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="399018736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="399011288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -448,7 +1135,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -978,6 +2221,41 @@
       <xdr:colOff>374649</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1264,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +2745,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:G10" si="0">(E9*E8-E4*E5)/(SQRT(E9*E6-E4^2)*SQRT(E9*E7-E5^2))</f>
+        <f t="shared" ref="E10:F10" si="0">(E9*E8-E4*E5)/(SQRT(E9*E6-E4^2)*SQRT(E9*E7-E5^2))</f>
         <v>0.18040446435453569</v>
       </c>
       <c r="F10">
@@ -1533,4 +2811,210 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>10.1+8</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C2">
+        <f>$B$8*A2^$B$9</f>
+        <v>18.178943565418606</v>
+      </c>
+      <c r="D2">
+        <f>(C2-B2)^2</f>
+        <v>6.2320865210015721E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>13.4+8</f>
+        <v>21.4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">$B$8*A3^$B$9</f>
+        <v>21.269260049181231</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="1">(C3-B3)^2</f>
+        <v>1.7092934740093844E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>15.4+8</f>
+        <v>23.4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>23.315101589728581</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>7.2077400666139529E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>16.5+8</f>
+        <v>24.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>24.884912668976636</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.1481577627387172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f>18.6+8</f>
+        <v>26.6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>26.174981440881613</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.18064077559507119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f>19.1+8</f>
+        <v>27.1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>27.278535576090661</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3.1874951930023751E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>18.178943565418606</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D2:D7)</f>
+        <v>0.39120625159152156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>0.2265014807667913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15">
+        <v>0.9254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="D16">
+        <v>0.9516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="D17">
+        <v>0.99099999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="D18">
+        <v>0.99019999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="D19">
+        <v>0.99460000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Лабы/СГМ/SGM.xlsx
+++ b/Лабы/СГМ/SGM.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$B$8:$B$9</definedName>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>l</t>
   </si>
@@ -137,6 +138,18 @@
   </si>
   <si>
     <t>(y^-y)^2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cov(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Sy)^2 </t>
+  </si>
+  <si>
+    <t>disp</t>
   </si>
 </sst>
 </file>
@@ -217,7 +230,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -332,11 +344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307023392"/>
-        <c:axId val="307019864"/>
+        <c:axId val="396125280"/>
+        <c:axId val="396125672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307023392"/>
+        <c:axId val="396125280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,12 +405,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307019864"/>
+        <c:crossAx val="396125672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307019864"/>
+        <c:axId val="396125672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +467,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307023392"/>
+        <c:crossAx val="396125280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -923,11 +935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399011288"/>
-        <c:axId val="399018736"/>
+        <c:axId val="396119792"/>
+        <c:axId val="396126064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399011288"/>
+        <c:axId val="396119792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,12 +996,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399018736"/>
+        <c:crossAx val="396126064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399018736"/>
+        <c:axId val="396126064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1058,482 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399011288"/>
+        <c:crossAx val="396119792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$C$4:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8,065561837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5,528339446</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3,64940459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3,043609123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2,525440376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1,39558228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0,965630835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0,928531767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0,710138617</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0,66871412</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0,121970933</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0,038747662</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0,316119274</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0,602594905</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0,15876667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0,193295603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0,058759089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0,05445793</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0,429178969</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0,018181155</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0931102362204723E-2"/>
+                  <c:y val="-0.44579214056576261"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.0655618367834219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5283394456592605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6494045899676757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0436091232277276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5254403761489508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3955822799898607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96563083522183046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92853176695449446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71013861667419165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66871411989242924</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12197093345023019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8747662042270509E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.316119274044243</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.60259490454221787</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.15876666956105095</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19329560324875547</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.8759089363264766E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4457930281375029E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.42917896948264339</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8181155149902706E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483327024"/>
+        <c:axId val="483326632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483327024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483326632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483326632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483327024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1175,6 +1662,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1692,6 +2219,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2256,6 +3299,41 @@
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2817,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3017,4 +4095,497 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <f>C3/(C3+5)</f>
+        <v>0.70588235294117652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>-0.40502639851069672</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>$B$1*C3+A4</f>
+        <v>8.0655618367834219</v>
+      </c>
+      <c r="L4">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="O4">
+        <f>$L$4*B4^3+$L$5*B4^2+$L$6*B4+$L$7</f>
+        <v>7.3023999999999996</v>
+      </c>
+      <c r="P4">
+        <f>C4-O4</f>
+        <v>0.76316183678342231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>-0.16499832148197879</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f>$B$1*C4+A5</f>
+        <v>5.5283394456592605</v>
+      </c>
+      <c r="L5">
+        <v>0.1326</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O23" si="0">$L$4*B5^3+$L$5*B5^2+$L$6*B5+$L$7</f>
+        <v>5.7512999999999996</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P23" si="1">C5-O5</f>
+        <v>-0.22296055434073914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-0.25295266579180276</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f>$B$1*C5+A6</f>
+        <v>3.6494045899676757</v>
+      </c>
+      <c r="L6">
+        <v>-1.9278999999999999</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>4.4294000000000002</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>-0.77999541003232453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.46755882442701502</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C5:C23" si="2">$B$1*C6+A7</f>
+        <v>3.0436091232277276</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <f>COVAR(C3:C22,C4:C23)</f>
+        <v>6.9190647405039041</v>
+      </c>
+      <c r="L7">
+        <v>9.1006999999999998</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>3.3186999999999998</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>-0.27509087677227217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.37701040681173137</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>2.5254403761489508</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>2.4011999999999993</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0.12424037614895145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>-0.38708151493881038</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>1.3955822799898607</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <f>VARP(C3:C23)</f>
+        <v>9.7809889735322528</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1.6589000000000009</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>-0.2633177200101402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>-1.9486068300424209E-2</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0.96563083522183046</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1.0737999999999985</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>-0.10816916477816807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.24691000091555526</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>0.92853176695449446</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <f>F7/F9</f>
+        <v>0.70739929870355334</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.62790000000000035</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0.30063176695449412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5.4704428235724967E-2</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>0.71013861667419165</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.30320000000000036</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0.40693861667419129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.16743980224005861</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>0.66871411989242924</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>8.1699999999999662E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0.58701411989242958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>-0.35006256294442578</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>0.12197093345023019</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>-5.4600000000002424E-2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0.17657093345023261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>-4.734946745200963E-2</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>3.8747662042270509E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>-0.12369999999999948</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0.16244766204226999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>-0.34347056489761041</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>-0.316119274044243</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>-0.14360000000000284</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>-0.17251927404424017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>-0.37945188756981107</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>-0.60259490454221787</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>-0.13230000000000075</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>-0.47029490454221712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.26659443952757345</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>-0.15876666956105095</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>-0.10780000000000101</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>-5.0966669561049949E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>-8.122501297036655E-2</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>-0.19329560324875547</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>-8.8100000000000733E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-0.10519560324875474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7.7684865871150866E-2</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>-5.8759089363264766E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>-9.1200000000000614E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>3.2440910636735848E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9.5934934537797223E-2</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>5.4457930281375029E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>-0.13510000000000133</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0.18955793028137635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>-0.46761986144596696</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>-0.42917896948264339</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>-0.23780000000000001</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-0.19137896948264338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.32113101596118043</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>1.8181155149902706E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>-0.41730000000000089</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0.4354811551499036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25">
+        <f>COVAR(P4:P22,P5:P23)</f>
+        <v>3.198535250034177E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26">
+        <f>VARP(P4:P23)</f>
+        <v>0.1292076145390583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27">
+        <f>P25/P26</f>
+        <v>0.24755005821017526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Лабы/СГМ/SGM.xlsx
+++ b/Лабы/СГМ/SGM.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Диск D\Универ\Лабы\СГМ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$B$8:$B$9</definedName>
@@ -51,7 +47,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>l</t>
   </si>
@@ -151,6 +147,42 @@
   <si>
     <t>disp</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>cov(2)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>r(1)</t>
+  </si>
+  <si>
+    <t>r(2)</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>Yt</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,13 +223,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -218,7 +300,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -255,7 +337,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -344,11 +426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396125280"/>
-        <c:axId val="396125672"/>
+        <c:axId val="207725696"/>
+        <c:axId val="207727616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396125280"/>
+        <c:axId val="207725696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,15 +484,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396125672"/>
+        <c:crossAx val="207727616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396125672"/>
+        <c:axId val="207727616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,10 +546,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396125280"/>
+        <c:crossAx val="207725696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -505,7 +587,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -519,7 +601,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -531,7 +613,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -557,7 +638,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="uk-UA"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -650,7 +731,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="uk-UA"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -700,7 +781,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="uk-UA"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -750,7 +831,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="uk-UA"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -801,7 +882,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="uk-UA"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -851,7 +932,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="uk-UA"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -935,11 +1016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396119792"/>
-        <c:axId val="396126064"/>
+        <c:axId val="257380352"/>
+        <c:axId val="257381888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396119792"/>
+        <c:axId val="257380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -993,15 +1074,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396126064"/>
+        <c:crossAx val="257381888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396126064"/>
+        <c:axId val="257381888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,10 +1136,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396119792"/>
+        <c:crossAx val="257380352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1096,7 +1177,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1110,7 +1191,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="uk-UA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1134,66 +1215,9 @@
             <c:strRef>
               <c:f>Лист3!$C$4:$C$23</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8,065561837</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5,528339446</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3,64940459</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3,043609123</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2,525440376</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1,39558228</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0,965630835</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0,928531767</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0,710138617</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0,66871412</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0,121970933</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0,038747662</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0,316119274</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0,602594905</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0,15876667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0,193295603</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0,058759089</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0,05445793</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0,429178969</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0,018181155</c:v>
+                  <c:v>8,065561837 5,528339446 3,64940459 3,043609123 2,525440376 1,39558228 0,965630835 0,928531767 0,710138617 0,66871412 0,121970933 0,038747662 -0,316119274 -0,602594905 -0,15876667 -0,193295603 -0,058759089 0,05445793 -0,429178969 0,018181155</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1211,7 +1235,6 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
-            <c:name/>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -1257,7 +1280,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
+                  <a:endParaRPr lang="uk-UA"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1410,11 +1433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483327024"/>
-        <c:axId val="483326632"/>
+        <c:axId val="257765376"/>
+        <c:axId val="257766912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483327024"/>
+        <c:axId val="257765376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,15 +1491,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483326632"/>
+        <c:crossAx val="257766912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483326632"/>
+        <c:axId val="257766912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,10 +1553,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483327024"/>
+        <c:crossAx val="257765376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1571,9 +1594,400 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="uk-UA"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$D$3:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>15.654277361177376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5807257551461307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.044243000656822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.602083012258912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1156734080148731</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.436379047366759</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.1803933220370295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1191386260642213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6739369285370498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.8629984038942418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.441307690707633</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4828533632658623</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2935091860613692</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9802662002639686</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6779068387268832</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2305527137547285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.66668614639835588</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1339189313322464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.510653857658681</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45340781326615537</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.76629068650610865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.0230957917370751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист4!$B$3:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист4!$C$3:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7335459129758992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.397897480137841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.9849417909414822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5495515249721157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1114680975483573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8254785732811329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7519403184115649</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.0581449906501206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28596772541886917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0264239572354095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.614080484358464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.113791698701744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.4161353779758588</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.47476739874526308</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8583555277565755</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0181797669215089</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42676498361346926</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.3835198985248724</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.87675090604645955</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93533805133284387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="271810944"/>
+        <c:axId val="271809152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="271810944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271809152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="271809152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271810944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3355,6 +3769,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -3398,7 +3847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3433,7 +3882,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3610,7 +4059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3624,13 +4073,13 @@
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5.2180664776242338</v>
       </c>
@@ -3642,7 +4091,7 @@
         <v>6.2220855321866111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.1016285245423205</v>
       </c>
@@ -3654,7 +4103,7 @@
         <v>1.5796854881955369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.4960261422675103</v>
       </c>
@@ -3674,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6.0401632860302925</v>
       </c>
@@ -3698,7 +4147,7 @@
         <v>111.83969357548631</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.5632954374304973</v>
       </c>
@@ -3722,7 +4171,7 @@
         <v>108.62598949929816</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.0164482116815634</v>
       </c>
@@ -3746,7 +4195,7 @@
         <v>798.73375520399964</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.2142223820555955</v>
       </c>
@@ -3770,7 +4219,7 @@
         <v>760.99341471336083</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.797502591216471</v>
       </c>
@@ -3794,7 +4243,7 @@
         <v>701.78550862753048</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4.45298589207232</v>
       </c>
@@ -3811,7 +4260,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6.7748371899651829</v>
       </c>
@@ -3835,52 +4284,52 @@
         <v>-0.19789839858481684</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10.796238499693573</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8.2888434614287689</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6.4473167791729793</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6.6907316674187314</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6.5275455805531237</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7.8889750208472833</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>8.5248664314858615</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6.4013099896837957</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.3409936754032969</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.8597134031588212</v>
       </c>
@@ -3899,9 +4348,9 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3915,7 +4364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3932,7 +4381,7 @@
         <v>6.2320865210015721E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3949,7 +4398,7 @@
         <v>1.7092934740093844E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3966,7 +4415,7 @@
         <v>7.2077400666139529E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3983,7 +4432,7 @@
         <v>0.1481577627387172</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4000,7 +4449,7 @@
         <v>0.18064077559507119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4017,7 +4466,7 @@
         <v>3.1874951930023751E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +4478,7 @@
         <v>0.39120625159152156</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4037,7 +4486,7 @@
         <v>0.2265014807667913</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4045,7 +4494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4054,7 +4503,7 @@
         <v>0.9254</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -4063,7 +4512,7 @@
         <v>0.9516</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -4072,7 +4521,7 @@
         <v>0.99099999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -4101,11 +4550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -4201,7 +4650,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C5:C23" si="2">$B$1*C6+A7</f>
+        <f t="shared" ref="C7:C23" si="2">$B$1*C6+A7</f>
         <v>3.0436091232277276</v>
       </c>
       <c r="E7" t="s">
@@ -4582,6 +5031,463 @@
       <c r="P27">
         <f>P25/P26</f>
         <v>0.24755005821017526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="5">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="5">
+        <f>C3</f>
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="5">
+        <f>L1/(L1+5)</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5">
+        <f>-(L1+5)/(L1+10)</f>
+        <v>-0.77272727272727271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f>-$H$2*EXP(-$J$2*B3)*SIN((2*3.14*B3-2)/6)</f>
+        <v>15.654277361177376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D24" si="0">-$H$2*EXP(-$J$2*B4)*SIN((2*3.14*B4-2)/6)</f>
+        <v>4.5807257551461307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.38595233008819851</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>$L$2*C4+$N$2*C3+A5</f>
+        <v>-2.7335459129758992</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-8.044243000656822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.195608386486404</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f>$L$2*C5+$N$2*C4+A6</f>
+        <v>-11.397897480137841</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-10.602083012258912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-5.1652577288125223E-2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>$L$2*C6+$N$2*C5+A7</f>
+        <v>-5.9849417909414822</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-3.1156734080148731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.324991607409894E-2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>$L$2*C7+$N$2*C6+A8</f>
+        <v>4.5495515249721157</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.436379047366759</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <f>COVAR(C5:C23,C6:C24)</f>
+        <v>7.9027601639598801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.27529221472823262</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f>$L$2*C8+$N$2*C7+A9</f>
+        <v>8.1114680975483573</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7.1803933220370295</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <f>COVAR(C5:C22,C7:C24)</f>
+        <v>-8.968442669034026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.38470107119968261</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>$L$2*C9+$N$2*C8+A10</f>
+        <v>1.8254785732811329</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.1191386260642213</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <f>VARP(C5:C24)</f>
+        <v>17.417159854176308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.22743919186986905</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f>$L$2*C10+$N$2*C9+A11</f>
+        <v>-4.7519403184115649</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-3.6739369285370498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-0.29323709830011901</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f>$L$2*C11+$N$2*C10+A12</f>
+        <v>-5.0581449906501206</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-4.8629984038942418</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <f>F8/$F$10</f>
+        <v>0.45373414667632772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.184469130527665</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f>$L$2*C12+$N$2*C11+A13</f>
+        <v>0.28596772541886917</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-1.441307690707633</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <f>F9/$F$10</f>
+        <v>-0.5149199263325106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-8.4002197332682271E-2</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f>$L$2*C13+$N$2*C12+A14</f>
+        <v>4.0264239572354095</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.4828533632658623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-7.1260719626453639E-3</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f>$L$2*C14+$N$2*C13+A15</f>
+        <v>2.614080484358464</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.2935091860613692</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <f>F12*(1-F13)/(1-F12^2)</f>
+        <v>0.86556980260252936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.15230262153996399</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>$L$2*C15+$N$2*C14+A16</f>
+        <v>-1.113791698701744</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.9802662002639686</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <f>(F13-F12^2)/(1-F12^2)</f>
+        <v>-0.90765850210516685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.39004181035798213</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f>$L$2*C16+$N$2*C15+A17</f>
+        <v>-2.4161353779758588</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-1.6779068387268832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.37008270516067998</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f>$L$2*C17+$N$2*C16+A18</f>
+        <v>-0.47476739874526308</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-2.2305527137547285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.32647175511948001</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f>$L$2*C18+$N$2*C17+A19</f>
+        <v>1.8583555277565755</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.66668614639835588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.33953367717520677</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <f>$L$2*C19+$N$2*C18+A20</f>
+        <v>2.0181797669215089</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.1339189313322464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.43816949980162967</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f>$L$2*C20+$N$2*C19+A21</f>
+        <v>0.42676498361346926</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.510653857658681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-0.12526322214423047</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f>$L$2*C21+$N$2*C20+A22</f>
+        <v>-1.3835198985248724</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.45340781326615537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.42962431714835048</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <f>$L$2*C22+$N$2*C21+A23</f>
+        <v>-0.87675090604645955</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.76629068650610865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.48513748588518935</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f>$L$2*C23+$N$2*C22+A24</f>
+        <v>0.93533805133284387</v>
+      </c>
+      <c r="D24">
+        <f>-$H$2*EXP(-$J$2*B24)*SIN((2*3.14*B24-2)/6)</f>
+        <v>-1.0230957917370751</v>
       </c>
     </row>
   </sheetData>

--- a/Лабы/СГМ/SGM.xlsx
+++ b/Лабы/СГМ/SGM.xlsx
@@ -4,48 +4,76 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$B$8:$B$9</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Лист5!$K$22:$O$22</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист2!$B$8</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Лист2!$B$9</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$D$8</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Лист5!$J$21</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -57,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>l</t>
   </si>
@@ -182,6 +210,30 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>Пики</t>
+  </si>
+  <si>
+    <t>1,4,9,13,17,20</t>
+  </si>
+  <si>
+    <t>Спады</t>
+  </si>
+  <si>
+    <t>2,6,10,15,18</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>11,55+0,54*t+3,15*sin(2*PI*t/4,01)+4,03*cos(2*PI*t/4,01)</t>
   </si>
 </sst>
 </file>
@@ -426,11 +478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207725696"/>
-        <c:axId val="207727616"/>
+        <c:axId val="164950016"/>
+        <c:axId val="164951936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207725696"/>
+        <c:axId val="164950016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,12 +539,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207727616"/>
+        <c:crossAx val="164951936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207727616"/>
+        <c:axId val="164951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -549,7 +601,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207725696"/>
+        <c:crossAx val="164950016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1016,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257380352"/>
-        <c:axId val="257381888"/>
+        <c:axId val="166435456"/>
+        <c:axId val="166453632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257380352"/>
+        <c:axId val="166435456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,12 +1129,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257381888"/>
+        <c:crossAx val="166453632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257381888"/>
+        <c:axId val="166453632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1191,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257380352"/>
+        <c:crossAx val="166435456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1433,11 +1485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257765376"/>
-        <c:axId val="257766912"/>
+        <c:axId val="166500992"/>
+        <c:axId val="166502784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257765376"/>
+        <c:axId val="166500992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1494,12 +1546,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257766912"/>
+        <c:crossAx val="166502784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257766912"/>
+        <c:axId val="166502784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1608,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257765376"/>
+        <c:crossAx val="166500992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1949,11 +2001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="271810944"/>
-        <c:axId val="271809152"/>
+        <c:axId val="166566144"/>
+        <c:axId val="166567936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="271810944"/>
+        <c:axId val="166566144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,12 +2015,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271809152"/>
+        <c:crossAx val="166567936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="271809152"/>
+        <c:axId val="166567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,11 +2031,833 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271810944"/>
+        <c:crossAx val="166566144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$C$1:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Модель 12</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$F$1:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>15.282647126956634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6678143656680557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9443880812415095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.659868514707988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.585367805426085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.949252987888334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.999761098356473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.732962614053704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.884806651471322</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.234536122745538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.058476506464949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.802264849936975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.180843377280866</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.523557531038723</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.12065291990389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.867883329965824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.473361071423412</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.81620726357685</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.186405518190472</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.929929817633216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Модель 14</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$H$1:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17.282778552658602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.667933827637087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.944204840226613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.659682077868727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.585417141082406</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.94931068959812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.999642180291335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.732824138517255</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.884777452176689</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.234527674060455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.058418253413723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.80217863892987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.180739401982215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.523478717755498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.120651473780217</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.867853506590691</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.473186275434017</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.816054055733225</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.186456828406719</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.929960316710641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Модель 10</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$D$1:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.282712583523933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6678619273982971</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9441222814264698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.659617285178371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.585369592084097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9492588436816494</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9995920266267699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.732790511115631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.884748682470871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.234495452143722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.058400135556653</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.802176598371418</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.180729790884399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.523465707262211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.120665002616359</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.867883456267293</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.473196221664491</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.816059862658363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.186501595806504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.930022641041855</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Модель 16</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$A$1:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$J$1:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>19.282523118842278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.667814518714248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.944473712423486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.659822474366351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.58522678182014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.949232983606041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.999827374663179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.732900323254764</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.884648627780276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.234496052273062</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.058523414776854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.802186218075896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.180668364357395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.523497484398476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.120680451614149</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.867788267650994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.473169075650489</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.816127329481748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.18641366911698</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29.929818236877743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="39619200"/>
+        <c:axId val="39617664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="39619200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39617664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39617664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39619200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3787,6 +4661,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4059,7 +4968,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5024,7 +5933,7 @@
         <v>0.1292076145390583</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O27" t="s">
         <v>21</v>
       </c>
@@ -5043,7 +5952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -5117,7 +6026,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D24" si="0">-$H$2*EXP(-$J$2*B4)*SIN((2*3.14*B4-2)/6)</f>
+        <f t="shared" ref="D4:D23" si="0">-$H$2*EXP(-$J$2*B4)*SIN((2*3.14*B4-2)/6)</f>
         <v>4.5807257551461307</v>
       </c>
     </row>
@@ -5129,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>$L$2*C4+$N$2*C3+A5</f>
+        <f t="shared" ref="C5:C24" si="1">$L$2*C4+$N$2*C3+A5</f>
         <v>-2.7335459129758992</v>
       </c>
       <c r="D5">
@@ -5145,7 +6054,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>$L$2*C5+$N$2*C4+A6</f>
+        <f t="shared" si="1"/>
         <v>-11.397897480137841</v>
       </c>
       <c r="D6">
@@ -5161,7 +6070,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <f>$L$2*C6+$N$2*C5+A7</f>
+        <f t="shared" si="1"/>
         <v>-5.9849417909414822</v>
       </c>
       <c r="D7">
@@ -5177,7 +6086,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <f>$L$2*C7+$N$2*C6+A8</f>
+        <f t="shared" si="1"/>
         <v>4.5495515249721157</v>
       </c>
       <c r="D8">
@@ -5200,7 +6109,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>$L$2*C8+$N$2*C7+A9</f>
+        <f t="shared" si="1"/>
         <v>8.1114680975483573</v>
       </c>
       <c r="D9">
@@ -5223,7 +6132,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>$L$2*C9+$N$2*C8+A10</f>
+        <f t="shared" si="1"/>
         <v>1.8254785732811329</v>
       </c>
       <c r="D10">
@@ -5246,7 +6155,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>$L$2*C10+$N$2*C9+A11</f>
+        <f t="shared" si="1"/>
         <v>-4.7519403184115649</v>
       </c>
       <c r="D11">
@@ -5262,7 +6171,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>$L$2*C11+$N$2*C10+A12</f>
+        <f t="shared" si="1"/>
         <v>-5.0581449906501206</v>
       </c>
       <c r="D12">
@@ -5285,7 +6194,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f>$L$2*C12+$N$2*C11+A13</f>
+        <f t="shared" si="1"/>
         <v>0.28596772541886917</v>
       </c>
       <c r="D13">
@@ -5308,7 +6217,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <f>$L$2*C13+$N$2*C12+A14</f>
+        <f t="shared" si="1"/>
         <v>4.0264239572354095</v>
       </c>
       <c r="D14">
@@ -5324,7 +6233,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <f>$L$2*C14+$N$2*C13+A15</f>
+        <f t="shared" si="1"/>
         <v>2.614080484358464</v>
       </c>
       <c r="D15">
@@ -5347,7 +6256,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <f>$L$2*C15+$N$2*C14+A16</f>
+        <f t="shared" si="1"/>
         <v>-1.113791698701744</v>
       </c>
       <c r="D16">
@@ -5370,7 +6279,7 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <f>$L$2*C16+$N$2*C15+A17</f>
+        <f t="shared" si="1"/>
         <v>-2.4161353779758588</v>
       </c>
       <c r="D17">
@@ -5386,7 +6295,7 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <f>$L$2*C17+$N$2*C16+A18</f>
+        <f t="shared" si="1"/>
         <v>-0.47476739874526308</v>
       </c>
       <c r="D18">
@@ -5402,7 +6311,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <f>$L$2*C18+$N$2*C17+A19</f>
+        <f t="shared" si="1"/>
         <v>1.8583555277565755</v>
       </c>
       <c r="D19">
@@ -5418,7 +6327,7 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <f>$L$2*C19+$N$2*C18+A20</f>
+        <f t="shared" si="1"/>
         <v>2.0181797669215089</v>
       </c>
       <c r="D20">
@@ -5434,7 +6343,7 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <f>$L$2*C20+$N$2*C19+A21</f>
+        <f t="shared" si="1"/>
         <v>0.42676498361346926</v>
       </c>
       <c r="D21">
@@ -5450,7 +6359,7 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <f>$L$2*C21+$N$2*C20+A22</f>
+        <f t="shared" si="1"/>
         <v>-1.3835198985248724</v>
       </c>
       <c r="D22">
@@ -5466,7 +6375,7 @@
         <v>19</v>
       </c>
       <c r="C23">
-        <f>$L$2*C22+$N$2*C21+A23</f>
+        <f t="shared" si="1"/>
         <v>-0.87675090604645955</v>
       </c>
       <c r="D23">
@@ -5482,12 +6391,993 @@
         <v>20</v>
       </c>
       <c r="C24">
-        <f>$L$2*C23+$N$2*C22+A24</f>
+        <f t="shared" si="1"/>
         <v>0.93533805133284387</v>
       </c>
       <c r="D24">
         <f>-$H$2*EXP(-$J$2*B24)*SIN((2*3.14*B24-2)/6)</f>
         <v>-1.0230957917370751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>3.5</f>
+        <v>3.5</v>
+      </c>
+      <c r="C1">
+        <f>B1+$L$17</f>
+        <v>13.5</v>
+      </c>
+      <c r="D1">
+        <f>$K$19+$L$19*A1+$M$19*SIN(2*3.14*A1/$O$19)+$N$19*COS(2*3.14*A1/$O$19)</f>
+        <v>13.282712583523933</v>
+      </c>
+      <c r="E1">
+        <f>B1+$M$17</f>
+        <v>15.5</v>
+      </c>
+      <c r="F1">
+        <f>$K$20+$L$20*A1+$M$20*SIN(2*3.14*A1/$O$20)+$N$20*COS(2*3.14*A1/$O$20)</f>
+        <v>15.282647126956634</v>
+      </c>
+      <c r="G1">
+        <f>B1+$N$17</f>
+        <v>17.5</v>
+      </c>
+      <c r="H1">
+        <f>$K$21+$L$21*A1+$M$21*SIN(2*3.14*A1/$O$21)+$N$21*COS(2*3.14*A1/$O$21)</f>
+        <v>17.282778552658602</v>
+      </c>
+      <c r="I1">
+        <f>B1+$O$17</f>
+        <v>19.5</v>
+      </c>
+      <c r="J1">
+        <f>$K$22+$L$22*A1+$M$22*SIN(2*3.14*A1/$O$22)+$N$22*COS(2*3.14*A1/$O$22)</f>
+        <v>19.282523118842278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>-3</f>
+        <v>-3</v>
+      </c>
+      <c r="C2">
+        <f>B2+$L$17</f>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <f>$K$19+$L$19*A2+$M$19*SIN(2*3.14*A2/$O$19)+$N$19*COS(2*3.14*A2/$O$19)</f>
+        <v>6.6678619273982971</v>
+      </c>
+      <c r="E2">
+        <f>B2+$M$17</f>
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F20" si="0">$K$20+$L$20*A2+$M$20*SIN(2*3.14*A2/$O$20)+$N$20*COS(2*3.14*A2/$O$20)</f>
+        <v>8.6678143656680557</v>
+      </c>
+      <c r="G2">
+        <f>B2+$N$17</f>
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H20" si="1">$K$21+$L$21*A2+$M$21*SIN(2*3.14*A2/$O$21)+$N$21*COS(2*3.14*A2/$O$21)</f>
+        <v>10.667933827637087</v>
+      </c>
+      <c r="I2">
+        <f>B2+$O$17</f>
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J20" si="2">$K$22+$L$22*A2+$M$22*SIN(2*3.14*A2/$O$22)+$N$22*COS(2*3.14*A2/$O$22)</f>
+        <v>12.667814518714248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>-1.5</f>
+        <v>-1.5</v>
+      </c>
+      <c r="C3">
+        <f>B3+$L$17</f>
+        <v>8.5</v>
+      </c>
+      <c r="D3">
+        <f>$K$19+$L$19*A3+$M$19*SIN(2*3.14*A3/$O$19)+$N$19*COS(2*3.14*A3/$O$19)</f>
+        <v>7.9441222814264698</v>
+      </c>
+      <c r="E3">
+        <f>B3+$M$17</f>
+        <v>10.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>9.9443880812415095</v>
+      </c>
+      <c r="G3">
+        <f>B3+$N$17</f>
+        <v>12.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>11.944204840226613</v>
+      </c>
+      <c r="I3">
+        <f>B3+$O$17</f>
+        <v>14.5</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>13.944473712423486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>7</f>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <f>B4+$L$17</f>
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <f>$K$19+$L$19*A4+$M$19*SIN(2*3.14*A4/$O$19)+$N$19*COS(2*3.14*A4/$O$19)</f>
+        <v>15.659617285178371</v>
+      </c>
+      <c r="E4">
+        <f>B4+$M$17</f>
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>17.659868514707988</v>
+      </c>
+      <c r="G4">
+        <f>B4+$N$17</f>
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>19.659682077868727</v>
+      </c>
+      <c r="I4">
+        <f>B4+$O$17</f>
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>21.659822474366351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4.5</v>
+      </c>
+      <c r="C5">
+        <f>B5+$L$17</f>
+        <v>14.5</v>
+      </c>
+      <c r="D5">
+        <f>$K$19+$L$19*A5+$M$19*SIN(2*3.14*A5/$O$19)+$N$19*COS(2*3.14*A5/$O$19)</f>
+        <v>15.585369592084097</v>
+      </c>
+      <c r="E5">
+        <f>B5+$M$17</f>
+        <v>16.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>17.585367805426085</v>
+      </c>
+      <c r="G5">
+        <f>B5+$N$17</f>
+        <v>18.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>19.585417141082406</v>
+      </c>
+      <c r="I5">
+        <f>B5+$O$17</f>
+        <v>20.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>21.58522678182014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <f>B6+$L$17</f>
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f>$K$19+$L$19*A6+$M$19*SIN(2*3.14*A6/$O$19)+$N$19*COS(2*3.14*A6/$O$19)</f>
+        <v>8.9492588436816494</v>
+      </c>
+      <c r="E6">
+        <f>B6+$M$17</f>
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10.949252987888334</v>
+      </c>
+      <c r="G6">
+        <f>B6+$N$17</f>
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>12.94931068959812</v>
+      </c>
+      <c r="I6">
+        <f>B6+$O$17</f>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>14.949232983606041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>-0.5</v>
+      </c>
+      <c r="C7">
+        <f>B7+$L$17</f>
+        <v>9.5</v>
+      </c>
+      <c r="D7">
+        <f>$K$19+$L$19*A7+$M$19*SIN(2*3.14*A7/$O$19)+$N$19*COS(2*3.14*A7/$O$19)</f>
+        <v>9.9995920266267699</v>
+      </c>
+      <c r="E7">
+        <f>B7+$M$17</f>
+        <v>11.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>11.999761098356473</v>
+      </c>
+      <c r="G7">
+        <f>B7+$N$17</f>
+        <v>13.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>13.999642180291335</v>
+      </c>
+      <c r="I7">
+        <f>B7+$O$17</f>
+        <v>15.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>15.999827374663179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>B8+$L$17</f>
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <f>$K$19+$L$19*A8+$M$19*SIN(2*3.14*A8/$O$19)+$N$19*COS(2*3.14*A8/$O$19)</f>
+        <v>17.732790511115631</v>
+      </c>
+      <c r="E8">
+        <f>B8+$M$17</f>
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>19.732962614053704</v>
+      </c>
+      <c r="G8">
+        <f>B8+$N$17</f>
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>21.732824138517255</v>
+      </c>
+      <c r="I8">
+        <f>B8+$O$17</f>
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>23.732900323254764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8.5</v>
+      </c>
+      <c r="C9">
+        <f>B9+$L$17</f>
+        <v>18.5</v>
+      </c>
+      <c r="D9">
+        <f>$K$19+$L$19*A9+$M$19*SIN(2*3.14*A9/$O$19)+$N$19*COS(2*3.14*A9/$O$19)</f>
+        <v>17.884748682470871</v>
+      </c>
+      <c r="E9">
+        <f>B9+$M$17</f>
+        <v>20.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>19.884806651471322</v>
+      </c>
+      <c r="G9">
+        <f>B9+$N$17</f>
+        <v>22.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>21.884777452176689</v>
+      </c>
+      <c r="I9">
+        <f>B9+$O$17</f>
+        <v>24.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>23.884648627780276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <f>B10+$L$17</f>
+        <v>10.1</v>
+      </c>
+      <c r="D10">
+        <f>$K$19+$L$19*A10+$M$19*SIN(2*3.14*A10/$O$19)+$N$19*COS(2*3.14*A10/$O$19)</f>
+        <v>11.234495452143722</v>
+      </c>
+      <c r="E10">
+        <f>B10+$M$17</f>
+        <v>12.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>13.234536122745538</v>
+      </c>
+      <c r="G10">
+        <f>B10+$N$17</f>
+        <v>14.1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>15.234527674060455</v>
+      </c>
+      <c r="I10">
+        <f>B10+$O$17</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>17.234496052273062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3.5</v>
+      </c>
+      <c r="C11">
+        <f>B11+$L$17</f>
+        <v>13.5</v>
+      </c>
+      <c r="D11">
+        <f>$K$19+$L$19*A11+$M$19*SIN(2*3.14*A11/$O$19)+$N$19*COS(2*3.14*A11/$O$19)</f>
+        <v>12.058400135556653</v>
+      </c>
+      <c r="E11">
+        <f>B11+$M$17</f>
+        <v>15.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>14.058476506464949</v>
+      </c>
+      <c r="G11">
+        <f>B11+$N$17</f>
+        <v>17.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>16.058418253413723</v>
+      </c>
+      <c r="I11">
+        <f>B11+$O$17</f>
+        <v>19.5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>18.058523414776854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f>B12+$L$17</f>
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <f>$K$19+$L$19*A12+$M$19*SIN(2*3.14*A12/$O$19)+$N$19*COS(2*3.14*A12/$O$19)</f>
+        <v>19.802176598371418</v>
+      </c>
+      <c r="E12">
+        <f>B12+$M$17</f>
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>21.802264849936975</v>
+      </c>
+      <c r="G12">
+        <f>B12+$N$17</f>
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>23.80217863892987</v>
+      </c>
+      <c r="I12">
+        <f>B12+$O$17</f>
+        <v>24</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>25.802186218075896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>10.5</v>
+      </c>
+      <c r="C13">
+        <f>B13+$L$17</f>
+        <v>20.5</v>
+      </c>
+      <c r="D13">
+        <f>$K$19+$L$19*A13+$M$19*SIN(2*3.14*A13/$O$19)+$N$19*COS(2*3.14*A13/$O$19)</f>
+        <v>20.180729790884399</v>
+      </c>
+      <c r="E13">
+        <f>B13+$M$17</f>
+        <v>22.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>22.180843377280866</v>
+      </c>
+      <c r="G13">
+        <f>B13+$N$17</f>
+        <v>24.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>24.180739401982215</v>
+      </c>
+      <c r="I13">
+        <f>B13+$O$17</f>
+        <v>26.5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>26.180668364357395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <f>B14+$L$17</f>
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <f>$K$19+$L$19*A14+$M$19*SIN(2*3.14*A14/$O$19)+$N$19*COS(2*3.14*A14/$O$19)</f>
+        <v>13.523465707262211</v>
+      </c>
+      <c r="E14">
+        <f>B14+$M$17</f>
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>15.523557531038723</v>
+      </c>
+      <c r="G14">
+        <f>B14+$N$17</f>
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>17.523478717755498</v>
+      </c>
+      <c r="I14">
+        <f>B14+$O$17</f>
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>19.523497484398476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3.4</v>
+      </c>
+      <c r="C15">
+        <f>B15+$L$17</f>
+        <v>13.4</v>
+      </c>
+      <c r="D15">
+        <f>$K$19+$L$19*A15+$M$19*SIN(2*3.14*A15/$O$19)+$N$19*COS(2*3.14*A15/$O$19)</f>
+        <v>14.120665002616359</v>
+      </c>
+      <c r="E15">
+        <f>B15+$M$17</f>
+        <v>15.4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>16.12065291990389</v>
+      </c>
+      <c r="G15">
+        <f>B15+$N$17</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>18.120651473780217</v>
+      </c>
+      <c r="I15">
+        <f>B15+$O$17</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>20.120680451614149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>B16+$L$17</f>
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <f>$K$19+$L$19*A16+$M$19*SIN(2*3.14*A16/$O$19)+$N$19*COS(2*3.14*A16/$O$19)</f>
+        <v>21.867883456267293</v>
+      </c>
+      <c r="E16">
+        <f>B16+$M$17</f>
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>23.867883329965824</v>
+      </c>
+      <c r="G16">
+        <f>B16+$N$17</f>
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>25.867853506590691</v>
+      </c>
+      <c r="I16">
+        <f>B16+$O$17</f>
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>27.867788267650994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>13.5</v>
+      </c>
+      <c r="C17">
+        <f>B17+$L$17</f>
+        <v>23.5</v>
+      </c>
+      <c r="D17">
+        <f>$K$19+$L$19*A17+$M$19*SIN(2*3.14*A17/$O$19)+$N$19*COS(2*3.14*A17/$O$19)</f>
+        <v>22.473196221664491</v>
+      </c>
+      <c r="E17">
+        <f>B17+$M$17</f>
+        <v>25.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>24.473361071423412</v>
+      </c>
+      <c r="G17">
+        <f>B17+$N$17</f>
+        <v>27.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>26.473186275434017</v>
+      </c>
+      <c r="I17">
+        <f>B17+$O$17</f>
+        <v>29.5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>28.473169075650489</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18">
+        <f>B18+$L$17</f>
+        <v>14.1</v>
+      </c>
+      <c r="D18">
+        <f>$K$19+$L$19*A18+$M$19*SIN(2*3.14*A18/$O$19)+$N$19*COS(2*3.14*A18/$O$19)</f>
+        <v>15.816059862658363</v>
+      </c>
+      <c r="E18">
+        <f>B18+$M$17</f>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>17.81620726357685</v>
+      </c>
+      <c r="G18">
+        <f>B18+$N$17</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>19.816054055733225</v>
+      </c>
+      <c r="I18">
+        <f>B18+$O$17</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>21.816127329481748</v>
+      </c>
+      <c r="K18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>6.4</v>
+      </c>
+      <c r="C19">
+        <f>B19+$L$17</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D19">
+        <f>$K$19+$L$19*A19+$M$19*SIN(2*3.14*A19/$O$19)+$N$19*COS(2*3.14*A19/$O$19)</f>
+        <v>16.186501595806504</v>
+      </c>
+      <c r="E19">
+        <f>B19+$M$17</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>18.186405518190472</v>
+      </c>
+      <c r="G19">
+        <f>B19+$N$17</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>20.186456828406719</v>
+      </c>
+      <c r="I19">
+        <f>B19+$O$17</f>
+        <v>22.4</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>22.18641366911698</v>
+      </c>
+      <c r="K19">
+        <v>9.555594110134157</v>
+      </c>
+      <c r="L19">
+        <v>0.5445628760683755</v>
+      </c>
+      <c r="M19">
+        <v>3.1509564276097248</v>
+      </c>
+      <c r="N19">
+        <v>4.0269586549825807</v>
+      </c>
+      <c r="O19">
+        <v>4.0181068192681693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>14.9</v>
+      </c>
+      <c r="C20">
+        <f>B20+$L$17</f>
+        <v>24.9</v>
+      </c>
+      <c r="D20">
+        <f>$K$19+$L$19*A20+$M$19*SIN(2*3.14*A20/$O$19)+$N$19*COS(2*3.14*A20/$O$19)</f>
+        <v>23.930022641041855</v>
+      </c>
+      <c r="E20">
+        <f>B20+$M$17</f>
+        <v>26.9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>25.929929817633216</v>
+      </c>
+      <c r="G20">
+        <f>B20+$N$17</f>
+        <v>28.9</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>27.929960316710641</v>
+      </c>
+      <c r="I20">
+        <f>B20+$O$17</f>
+        <v>30.9</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>29.929818236877743</v>
+      </c>
+      <c r="K20">
+        <v>11.555723556769426</v>
+      </c>
+      <c r="L20">
+        <v>0.54455850271847128</v>
+      </c>
+      <c r="M20">
+        <v>3.1507450223344291</v>
+      </c>
+      <c r="N20">
+        <v>4.0271546506969553</v>
+      </c>
+      <c r="O20">
+        <v>4.0181192337640175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>SUMXMY2(C1:C20,D1:D20)</f>
+        <v>21.492102029312054</v>
+      </c>
+      <c r="F21">
+        <f>SUMXMY2(E1:E20,F1:F20)</f>
+        <v>21.492101702310752</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="G21:J21" si="3">SUMXMY2(G1:G20,H1:H20)</f>
+        <v>21.492101966185974</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>21.492101711273758</v>
+      </c>
+      <c r="K21">
+        <v>13.55568291672704</v>
+      </c>
+      <c r="L21">
+        <v>0.54455650078284978</v>
+      </c>
+      <c r="M21">
+        <v>3.1509381414990512</v>
+      </c>
+      <c r="N21">
+        <v>4.0269653674916839</v>
+      </c>
+      <c r="O21">
+        <v>4.0181079566519653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>15.555713749107126</v>
+      </c>
+      <c r="L22">
+        <v>0.5445539574572924</v>
+      </c>
+      <c r="M22">
+        <v>3.1506350787035595</v>
+      </c>
+      <c r="N22">
+        <v>4.0271345768526032</v>
+      </c>
+      <c r="O22">
+        <v>4.0181195184197724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f>SUM(D23:G24)</f>
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <f>H24/8</f>
+        <v>3.875</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Лабы/СГМ/SGM.xlsx
+++ b/Лабы/СГМ/SGM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -363,37 +363,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -478,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164950016"/>
-        <c:axId val="164951936"/>
+        <c:axId val="165015936"/>
+        <c:axId val="165017856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164950016"/>
+        <c:axId val="165015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,12 +509,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164951936"/>
+        <c:crossAx val="165017856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164951936"/>
+        <c:axId val="165017856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -601,7 +571,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164950016"/>
+        <c:crossAx val="165015936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -665,6 +635,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1068,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166435456"/>
-        <c:axId val="166453632"/>
+        <c:axId val="166247424"/>
+        <c:axId val="166531840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166435456"/>
+        <c:axId val="166247424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,12 +1100,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166453632"/>
+        <c:crossAx val="166531840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166453632"/>
+        <c:axId val="166531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1162,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166435456"/>
+        <c:crossAx val="166247424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1485,11 +1456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166500992"/>
-        <c:axId val="166502784"/>
+        <c:axId val="166554624"/>
+        <c:axId val="166576896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166500992"/>
+        <c:axId val="166554624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,12 +1517,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166502784"/>
+        <c:crossAx val="166576896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166502784"/>
+        <c:axId val="166576896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1579,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166500992"/>
+        <c:crossAx val="166554624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2001,11 +1972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166566144"/>
-        <c:axId val="166567936"/>
+        <c:axId val="166636160"/>
+        <c:axId val="166637952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166566144"/>
+        <c:axId val="166636160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,12 +1986,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166567936"/>
+        <c:crossAx val="166637952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166567936"/>
+        <c:axId val="166637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166566144"/>
+        <c:crossAx val="166636160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2818,11 +2789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="39619200"/>
-        <c:axId val="39617664"/>
+        <c:axId val="166692352"/>
+        <c:axId val="166693888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39619200"/>
+        <c:axId val="166692352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,12 +2803,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39617664"/>
+        <c:crossAx val="166693888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39617664"/>
+        <c:axId val="166693888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2848,16 +2819,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39619200"/>
+        <c:crossAx val="166692352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4968,7 +4934,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4978,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5953,7 +5919,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6409,8 +6375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6424,15 +6390,15 @@
         <v>3.5</v>
       </c>
       <c r="C1">
-        <f>B1+$L$17</f>
+        <f t="shared" ref="C1:C20" si="0">B1+$L$17</f>
         <v>13.5</v>
       </c>
       <c r="D1">
-        <f>$K$19+$L$19*A1+$M$19*SIN(2*3.14*A1/$O$19)+$N$19*COS(2*3.14*A1/$O$19)</f>
+        <f t="shared" ref="D1:D20" si="1">$K$19+$L$19*A1+$M$19*SIN(2*3.14*A1/$O$19)+$N$19*COS(2*3.14*A1/$O$19)</f>
         <v>13.282712583523933</v>
       </c>
       <c r="E1">
-        <f>B1+$M$17</f>
+        <f t="shared" ref="E1:E20" si="2">B1+$M$17</f>
         <v>15.5</v>
       </c>
       <c r="F1">
@@ -6440,7 +6406,7 @@
         <v>15.282647126956634</v>
       </c>
       <c r="G1">
-        <f>B1+$N$17</f>
+        <f t="shared" ref="G1:G20" si="3">B1+$N$17</f>
         <v>17.5</v>
       </c>
       <c r="H1">
@@ -6448,7 +6414,7 @@
         <v>17.282778552658602</v>
       </c>
       <c r="I1">
-        <f>B1+$O$17</f>
+        <f t="shared" ref="I1:I20" si="4">B1+$O$17</f>
         <v>19.5</v>
       </c>
       <c r="J1">
@@ -6465,35 +6431,35 @@
         <v>-3</v>
       </c>
       <c r="C2">
-        <f>B2+$L$17</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D2">
-        <f>$K$19+$L$19*A2+$M$19*SIN(2*3.14*A2/$O$19)+$N$19*COS(2*3.14*A2/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>6.6678619273982971</v>
       </c>
       <c r="E2">
-        <f>B2+$M$17</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F20" si="0">$K$20+$L$20*A2+$M$20*SIN(2*3.14*A2/$O$20)+$N$20*COS(2*3.14*A2/$O$20)</f>
+        <f t="shared" ref="F2:F20" si="5">$K$20+$L$20*A2+$M$20*SIN(2*3.14*A2/$O$20)+$N$20*COS(2*3.14*A2/$O$20)</f>
         <v>8.6678143656680557</v>
       </c>
       <c r="G2">
-        <f>B2+$N$17</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H20" si="1">$K$21+$L$21*A2+$M$21*SIN(2*3.14*A2/$O$21)+$N$21*COS(2*3.14*A2/$O$21)</f>
+        <f t="shared" ref="H2:H20" si="6">$K$21+$L$21*A2+$M$21*SIN(2*3.14*A2/$O$21)+$N$21*COS(2*3.14*A2/$O$21)</f>
         <v>10.667933827637087</v>
       </c>
       <c r="I2">
-        <f>B2+$O$17</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J20" si="2">$K$22+$L$22*A2+$M$22*SIN(2*3.14*A2/$O$22)+$N$22*COS(2*3.14*A2/$O$22)</f>
+        <f t="shared" ref="J2:J20" si="7">$K$22+$L$22*A2+$M$22*SIN(2*3.14*A2/$O$22)+$N$22*COS(2*3.14*A2/$O$22)</f>
         <v>12.667814518714248</v>
       </c>
     </row>
@@ -6506,35 +6472,35 @@
         <v>-1.5</v>
       </c>
       <c r="C3">
-        <f>B3+$L$17</f>
+        <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
       <c r="D3">
-        <f>$K$19+$L$19*A3+$M$19*SIN(2*3.14*A3/$O$19)+$N$19*COS(2*3.14*A3/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>7.9441222814264698</v>
       </c>
       <c r="E3">
-        <f>B3+$M$17</f>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9.9443880812415095</v>
       </c>
       <c r="G3">
-        <f>B3+$N$17</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
       <c r="H3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11.944204840226613</v>
       </c>
       <c r="I3">
-        <f>B3+$O$17</f>
+        <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>13.944473712423486</v>
       </c>
     </row>
@@ -6547,35 +6513,35 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f>B4+$L$17</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="D4">
-        <f>$K$19+$L$19*A4+$M$19*SIN(2*3.14*A4/$O$19)+$N$19*COS(2*3.14*A4/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>15.659617285178371</v>
       </c>
       <c r="E4">
-        <f>B4+$M$17</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.659868514707988</v>
       </c>
       <c r="G4">
-        <f>B4+$N$17</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19.659682077868727</v>
       </c>
       <c r="I4">
-        <f>B4+$O$17</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="J4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>21.659822474366351</v>
       </c>
     </row>
@@ -6587,35 +6553,35 @@
         <v>4.5</v>
       </c>
       <c r="C5">
-        <f>B5+$L$17</f>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="D5">
-        <f>$K$19+$L$19*A5+$M$19*SIN(2*3.14*A5/$O$19)+$N$19*COS(2*3.14*A5/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>15.585369592084097</v>
       </c>
       <c r="E5">
-        <f>B5+$M$17</f>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.585367805426085</v>
       </c>
       <c r="G5">
-        <f>B5+$N$17</f>
+        <f t="shared" si="3"/>
         <v>18.5</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19.585417141082406</v>
       </c>
       <c r="I5">
-        <f>B5+$O$17</f>
+        <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>21.58522678182014</v>
       </c>
     </row>
@@ -6627,35 +6593,35 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <f>B6+$L$17</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="D6">
-        <f>$K$19+$L$19*A6+$M$19*SIN(2*3.14*A6/$O$19)+$N$19*COS(2*3.14*A6/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>8.9492588436816494</v>
       </c>
       <c r="E6">
-        <f>B6+$M$17</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10.949252987888334</v>
       </c>
       <c r="G6">
-        <f>B6+$N$17</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12.94931068959812</v>
       </c>
       <c r="I6">
-        <f>B6+$O$17</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>14.949232983606041</v>
       </c>
     </row>
@@ -6667,35 +6633,35 @@
         <v>-0.5</v>
       </c>
       <c r="C7">
-        <f>B7+$L$17</f>
+        <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="D7">
-        <f>$K$19+$L$19*A7+$M$19*SIN(2*3.14*A7/$O$19)+$N$19*COS(2*3.14*A7/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>9.9995920266267699</v>
       </c>
       <c r="E7">
-        <f>B7+$M$17</f>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>11.999761098356473</v>
       </c>
       <c r="G7">
-        <f>B7+$N$17</f>
+        <f t="shared" si="3"/>
         <v>13.5</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13.999642180291335</v>
       </c>
       <c r="I7">
-        <f>B7+$O$17</f>
+        <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>15.999827374663179</v>
       </c>
     </row>
@@ -6707,35 +6673,35 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f>B8+$L$17</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D8">
-        <f>$K$19+$L$19*A8+$M$19*SIN(2*3.14*A8/$O$19)+$N$19*COS(2*3.14*A8/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>17.732790511115631</v>
       </c>
       <c r="E8">
-        <f>B8+$M$17</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.732962614053704</v>
       </c>
       <c r="G8">
-        <f>B8+$N$17</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21.732824138517255</v>
       </c>
       <c r="I8">
-        <f>B8+$O$17</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23.732900323254764</v>
       </c>
     </row>
@@ -6747,35 +6713,35 @@
         <v>8.5</v>
       </c>
       <c r="C9">
-        <f>B9+$L$17</f>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="D9">
-        <f>$K$19+$L$19*A9+$M$19*SIN(2*3.14*A9/$O$19)+$N$19*COS(2*3.14*A9/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>17.884748682470871</v>
       </c>
       <c r="E9">
-        <f>B9+$M$17</f>
+        <f t="shared" si="2"/>
         <v>20.5</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>19.884806651471322</v>
       </c>
       <c r="G9">
-        <f>B9+$N$17</f>
+        <f t="shared" si="3"/>
         <v>22.5</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21.884777452176689</v>
       </c>
       <c r="I9">
-        <f>B9+$O$17</f>
+        <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>23.884648627780276</v>
       </c>
     </row>
@@ -6787,35 +6753,35 @@
         <v>0.1</v>
       </c>
       <c r="C10">
-        <f>B10+$L$17</f>
+        <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
       <c r="D10">
-        <f>$K$19+$L$19*A10+$M$19*SIN(2*3.14*A10/$O$19)+$N$19*COS(2*3.14*A10/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>11.234495452143722</v>
       </c>
       <c r="E10">
-        <f>B10+$M$17</f>
+        <f t="shared" si="2"/>
         <v>12.1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>13.234536122745538</v>
       </c>
       <c r="G10">
-        <f>B10+$N$17</f>
+        <f t="shared" si="3"/>
         <v>14.1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15.234527674060455</v>
       </c>
       <c r="I10">
-        <f>B10+$O$17</f>
+        <f t="shared" si="4"/>
         <v>16.100000000000001</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17.234496052273062</v>
       </c>
     </row>
@@ -6827,35 +6793,35 @@
         <v>3.5</v>
       </c>
       <c r="C11">
-        <f>B11+$L$17</f>
+        <f t="shared" si="0"/>
         <v>13.5</v>
       </c>
       <c r="D11">
-        <f>$K$19+$L$19*A11+$M$19*SIN(2*3.14*A11/$O$19)+$N$19*COS(2*3.14*A11/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>12.058400135556653</v>
       </c>
       <c r="E11">
-        <f>B11+$M$17</f>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>14.058476506464949</v>
       </c>
       <c r="G11">
-        <f>B11+$N$17</f>
+        <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>16.058418253413723</v>
       </c>
       <c r="I11">
-        <f>B11+$O$17</f>
+        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>18.058523414776854</v>
       </c>
     </row>
@@ -6867,35 +6833,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f>B12+$L$17</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D12">
-        <f>$K$19+$L$19*A12+$M$19*SIN(2*3.14*A12/$O$19)+$N$19*COS(2*3.14*A12/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>19.802176598371418</v>
       </c>
       <c r="E12">
-        <f>B12+$M$17</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>21.802264849936975</v>
       </c>
       <c r="G12">
-        <f>B12+$N$17</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23.80217863892987</v>
       </c>
       <c r="I12">
-        <f>B12+$O$17</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>25.802186218075896</v>
       </c>
     </row>
@@ -6907,35 +6873,35 @@
         <v>10.5</v>
       </c>
       <c r="C13">
-        <f>B13+$L$17</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="D13">
-        <f>$K$19+$L$19*A13+$M$19*SIN(2*3.14*A13/$O$19)+$N$19*COS(2*3.14*A13/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>20.180729790884399</v>
       </c>
       <c r="E13">
-        <f>B13+$M$17</f>
+        <f t="shared" si="2"/>
         <v>22.5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>22.180843377280866</v>
       </c>
       <c r="G13">
-        <f>B13+$N$17</f>
+        <f t="shared" si="3"/>
         <v>24.5</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>24.180739401982215</v>
       </c>
       <c r="I13">
-        <f>B13+$O$17</f>
+        <f t="shared" si="4"/>
         <v>26.5</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>26.180668364357395</v>
       </c>
     </row>
@@ -6947,35 +6913,35 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <f>B14+$L$17</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="D14">
-        <f>$K$19+$L$19*A14+$M$19*SIN(2*3.14*A14/$O$19)+$N$19*COS(2*3.14*A14/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>13.523465707262211</v>
       </c>
       <c r="E14">
-        <f>B14+$M$17</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>15.523557531038723</v>
       </c>
       <c r="G14">
-        <f>B14+$N$17</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17.523478717755498</v>
       </c>
       <c r="I14">
-        <f>B14+$O$17</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>19.523497484398476</v>
       </c>
     </row>
@@ -6987,35 +6953,35 @@
         <v>3.4</v>
       </c>
       <c r="C15">
-        <f>B15+$L$17</f>
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
       <c r="D15">
-        <f>$K$19+$L$19*A15+$M$19*SIN(2*3.14*A15/$O$19)+$N$19*COS(2*3.14*A15/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>14.120665002616359</v>
       </c>
       <c r="E15">
-        <f>B15+$M$17</f>
+        <f t="shared" si="2"/>
         <v>15.4</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16.12065291990389</v>
       </c>
       <c r="G15">
-        <f>B15+$N$17</f>
+        <f t="shared" si="3"/>
         <v>17.399999999999999</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18.120651473780217</v>
       </c>
       <c r="I15">
-        <f>B15+$O$17</f>
+        <f t="shared" si="4"/>
         <v>19.399999999999999</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>20.120680451614149</v>
       </c>
     </row>
@@ -7027,35 +6993,35 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <f>B16+$L$17</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D16">
-        <f>$K$19+$L$19*A16+$M$19*SIN(2*3.14*A16/$O$19)+$N$19*COS(2*3.14*A16/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>21.867883456267293</v>
       </c>
       <c r="E16">
-        <f>B16+$M$17</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>23.867883329965824</v>
       </c>
       <c r="G16">
-        <f>B16+$N$17</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>25.867853506590691</v>
       </c>
       <c r="I16">
-        <f>B16+$O$17</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>27.867788267650994</v>
       </c>
     </row>
@@ -7067,35 +7033,35 @@
         <v>13.5</v>
       </c>
       <c r="C17">
-        <f>B17+$L$17</f>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="D17">
-        <f>$K$19+$L$19*A17+$M$19*SIN(2*3.14*A17/$O$19)+$N$19*COS(2*3.14*A17/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>22.473196221664491</v>
       </c>
       <c r="E17">
-        <f>B17+$M$17</f>
+        <f t="shared" si="2"/>
         <v>25.5</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>24.473361071423412</v>
       </c>
       <c r="G17">
-        <f>B17+$N$17</f>
+        <f t="shared" si="3"/>
         <v>27.5</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26.473186275434017</v>
       </c>
       <c r="I17">
-        <f>B17+$O$17</f>
+        <f t="shared" si="4"/>
         <v>29.5</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>28.473169075650489</v>
       </c>
       <c r="K17" t="s">
@@ -7122,35 +7088,35 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C18">
-        <f>B18+$L$17</f>
+        <f t="shared" si="0"/>
         <v>14.1</v>
       </c>
       <c r="D18">
-        <f>$K$19+$L$19*A18+$M$19*SIN(2*3.14*A18/$O$19)+$N$19*COS(2*3.14*A18/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>15.816059862658363</v>
       </c>
       <c r="E18">
-        <f>B18+$M$17</f>
+        <f t="shared" si="2"/>
         <v>16.100000000000001</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17.81620726357685</v>
       </c>
       <c r="G18">
-        <f>B18+$N$17</f>
+        <f t="shared" si="3"/>
         <v>18.100000000000001</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>19.816054055733225</v>
       </c>
       <c r="I18">
-        <f>B18+$O$17</f>
+        <f t="shared" si="4"/>
         <v>20.100000000000001</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>21.816127329481748</v>
       </c>
       <c r="K18" t="s">
@@ -7177,35 +7143,35 @@
         <v>6.4</v>
       </c>
       <c r="C19">
-        <f>B19+$L$17</f>
+        <f t="shared" si="0"/>
         <v>16.399999999999999</v>
       </c>
       <c r="D19">
-        <f>$K$19+$L$19*A19+$M$19*SIN(2*3.14*A19/$O$19)+$N$19*COS(2*3.14*A19/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>16.186501595806504</v>
       </c>
       <c r="E19">
-        <f>B19+$M$17</f>
+        <f t="shared" si="2"/>
         <v>18.399999999999999</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>18.186405518190472</v>
       </c>
       <c r="G19">
-        <f>B19+$N$17</f>
+        <f t="shared" si="3"/>
         <v>20.399999999999999</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20.186456828406719</v>
       </c>
       <c r="I19">
-        <f>B19+$O$17</f>
+        <f t="shared" si="4"/>
         <v>22.4</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22.18641366911698</v>
       </c>
       <c r="K19">
@@ -7232,35 +7198,35 @@
         <v>14.9</v>
       </c>
       <c r="C20">
-        <f>B20+$L$17</f>
+        <f t="shared" si="0"/>
         <v>24.9</v>
       </c>
       <c r="D20">
-        <f>$K$19+$L$19*A20+$M$19*SIN(2*3.14*A20/$O$19)+$N$19*COS(2*3.14*A20/$O$19)</f>
+        <f t="shared" si="1"/>
         <v>23.930022641041855</v>
       </c>
       <c r="E20">
-        <f>B20+$M$17</f>
+        <f t="shared" si="2"/>
         <v>26.9</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>25.929929817633216</v>
       </c>
       <c r="G20">
-        <f>B20+$N$17</f>
+        <f t="shared" si="3"/>
         <v>28.9</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>27.929960316710641</v>
       </c>
       <c r="I20">
-        <f>B20+$O$17</f>
+        <f t="shared" si="4"/>
         <v>30.9</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>29.929818236877743</v>
       </c>
       <c r="K20">
@@ -7289,11 +7255,11 @@
         <v>21.492101702310752</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="G21:J21" si="3">SUMXMY2(G1:G20,H1:H20)</f>
+        <f t="shared" ref="H21:J21" si="8">SUMXMY2(G1:G20,H1:H20)</f>
         <v>21.492101966185974</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>21.492101711273758</v>
       </c>
       <c r="K21">

--- a/Лабы/СГМ/SGM.xlsx
+++ b/Лабы/СГМ/SGM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1039,11 +1039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166247424"/>
-        <c:axId val="166531840"/>
+        <c:axId val="166513280"/>
+        <c:axId val="166531456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166247424"/>
+        <c:axId val="166513280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,12 +1100,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166531840"/>
+        <c:crossAx val="166531456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166531840"/>
+        <c:axId val="166531456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1162,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166247424"/>
+        <c:crossAx val="166513280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1456,11 +1456,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166554624"/>
-        <c:axId val="166576896"/>
+        <c:axId val="166564992"/>
+        <c:axId val="166566528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166554624"/>
+        <c:axId val="166564992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,12 +1517,12 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166576896"/>
+        <c:crossAx val="166566528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166576896"/>
+        <c:axId val="166566528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166554624"/>
+        <c:crossAx val="166564992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1972,11 +1972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166636160"/>
-        <c:axId val="166637952"/>
+        <c:axId val="166635776"/>
+        <c:axId val="166641664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166636160"/>
+        <c:axId val="166635776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1986,12 +1986,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166637952"/>
+        <c:crossAx val="166641664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166637952"/>
+        <c:axId val="166641664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166636160"/>
+        <c:crossAx val="166635776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2789,11 +2789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="166692352"/>
-        <c:axId val="166693888"/>
+        <c:axId val="166691584"/>
+        <c:axId val="166693120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="166692352"/>
+        <c:axId val="166691584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2803,12 +2803,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166693888"/>
+        <c:crossAx val="166693120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="166693888"/>
+        <c:axId val="166693120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,7 +2819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166692352"/>
+        <c:crossAx val="166691584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4934,7 +4934,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4944,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5219,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5389,20 +5389,20 @@
     </row>
     <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1"/>
       <c r="D17">
-        <v>0.99099999999999999</v>
+        <v>0.99019999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18">
-        <v>0.99019999999999997</v>
+        <v>0.99099999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
